--- a/default/data/RTP.xlsx
+++ b/default/data/RTP.xlsx
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,36 +506,34 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44792</v>
+        <v>44799</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PENIND</t>
+          <t>KANORICHEM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>41.75</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
-        <v>38.29</v>
+        <v>136.95</v>
       </c>
       <c r="G2" t="n">
-        <v>43.32</v>
+        <v>159.12</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>T1 Hit</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>43.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Target achieved</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -552,34 +549,36 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44791</v>
+        <v>44798</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACRYSIL</t>
+          <t>TIMETECHNO</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>718.75</v>
+        <v>118.45</v>
       </c>
       <c r="F3" t="n">
-        <v>660.77</v>
+        <v>105.78</v>
       </c>
       <c r="G3" t="n">
-        <v>747.5</v>
+        <v>123.19</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>T1 Hit</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>123.19</v>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Target achieved</t>
         </is>
       </c>
     </row>
@@ -595,21 +594,21 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44785</v>
+        <v>44796</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CONTROLPR</t>
+          <t>PENIND</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>492.05</v>
+        <v>44.6</v>
       </c>
       <c r="F4" t="n">
-        <v>456.19</v>
+        <v>38.8</v>
       </c>
       <c r="G4" t="n">
-        <v>511.73</v>
+        <v>46.38</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -638,21 +637,21 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44784</v>
+        <v>44795</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GRSE</t>
+          <t>KABRAEXTRU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>274.1</v>
+        <v>390.6</v>
       </c>
       <c r="F5" t="n">
-        <v>256.26</v>
+        <v>389.07</v>
       </c>
       <c r="G5" t="n">
-        <v>285.06</v>
+        <v>406.22</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -660,10 +659,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>285.06</v>
+        <v>406.22</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -683,36 +682,36 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SHREYAS</t>
+          <t>PENIND</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>353.8</v>
+        <v>41.75</v>
       </c>
       <c r="F6" t="n">
-        <v>335.81</v>
+        <v>38.29</v>
       </c>
       <c r="G6" t="n">
-        <v>367.95</v>
+        <v>43.32</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>T1 Hit</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>335.81</v>
+        <v>43.32</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>Target achieved</t>
         </is>
       </c>
     </row>
@@ -728,21 +727,21 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44781</v>
+        <v>44791</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MADRASFERT</t>
+          <t>ACRYSIL</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.15</v>
+        <v>718.75</v>
       </c>
       <c r="F7" t="n">
-        <v>47.49</v>
+        <v>660.77</v>
       </c>
       <c r="G7" t="n">
-        <v>55.28</v>
+        <v>747.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -771,36 +770,36 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SWELECTES</t>
+          <t>CONTROLPR</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>362.1</v>
+        <v>492.05</v>
       </c>
       <c r="F8" t="n">
-        <v>349.86</v>
+        <v>456.19</v>
       </c>
       <c r="G8" t="n">
-        <v>376.58</v>
+        <v>511.73</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>T1 Hit</t>
+          <t>SL Hit</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>376.58</v>
+        <v>456.19</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Target achieved</t>
+          <t>SL Hit</t>
         </is>
       </c>
     </row>
@@ -816,36 +815,36 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44777</v>
+        <v>44784</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BCLIND</t>
+          <t>GRSE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>408.1</v>
+        <v>274.1</v>
       </c>
       <c r="F9" t="n">
-        <v>385.14</v>
+        <v>256.26</v>
       </c>
       <c r="G9" t="n">
-        <v>424.42</v>
+        <v>285.06</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>T1 Hit</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>385.14</v>
+        <v>285.06</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>Target achieved</t>
         </is>
       </c>
     </row>
@@ -861,21 +860,21 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44776</v>
+        <v>44783</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>KAMDHENU</t>
+          <t>SHREYAS</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>214.15</v>
+        <v>353.8</v>
       </c>
       <c r="F10" t="n">
-        <v>207.83</v>
+        <v>335.81</v>
       </c>
       <c r="G10" t="n">
-        <v>222.72</v>
+        <v>367.95</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -886,9 +885,189 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>335.81</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SL Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BO_Rising_Triangle</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MADRASFERT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Expired-SL Hit</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>SL Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BO_Rising_Triangle</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SWELECTES</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>362.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="G12" t="n">
+        <v>376.58</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Expired-T1 Hit</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>376.58</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Target achieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BO_Rising_Triangle</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BCLIND</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>424.42</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Expired-SL Hit</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SL Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BO_Rising_Triangle</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KAMDHENU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>214.15</v>
+      </c>
+      <c r="F14" t="n">
         <v>207.83</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="G14" t="n">
+        <v>222.72</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Expired-SL Hit</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>207.83</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>SL Hit</t>
         </is>
